--- a/taxas crescimento.xlsx
+++ b/taxas crescimento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinie\Documents\GitHub\projeto_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A485131-D638-44F7-A82B-2F5A9992791C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2040E8EE-C1A3-49CA-8922-9069A8B2FD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F281FA50-E542-42BB-AF85-3156D7D19A72}"/>
   </bookViews>
@@ -405,12 +405,12 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -418,19 +418,19 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="C1">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D1">
         <v>2020</v>
       </c>
       <c r="E1">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="F1">
-        <v>2018</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -438,19 +438,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.12025149588816639</v>
+        <v>0.15006427528310379</v>
       </c>
       <c r="C2">
-        <v>0.22849788296200205</v>
+        <v>0.14424792497020528</v>
       </c>
       <c r="D2">
         <v>0.18080142182689002</v>
       </c>
       <c r="E2">
-        <v>0.14424792497020528</v>
+        <v>0.22849788296200205</v>
       </c>
       <c r="F2">
-        <v>0.15006427528310379</v>
+        <v>0.12025149588816639</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -458,19 +458,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.15677571628427703</v>
+        <v>-0.19823811153684995</v>
       </c>
       <c r="C3">
-        <v>-0.22011768730666675</v>
+        <v>-0.17882532184819463</v>
       </c>
       <c r="D3">
         <v>-0.25270623548654231</v>
       </c>
       <c r="E3">
-        <v>-0.17882532184819463</v>
+        <v>-0.22011768730666675</v>
       </c>
       <c r="F3">
-        <v>-0.19823811153684995</v>
+        <v>0.15677571628427703</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -478,19 +478,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.13621060564557039</v>
+        <v>4.4437524238463678E-2</v>
       </c>
       <c r="C4">
-        <v>0.10243309319523797</v>
+        <v>0.12772997688531668</v>
       </c>
       <c r="D4">
         <v>9.7459283304060201E-2</v>
       </c>
       <c r="E4">
-        <v>0.12772997688531668</v>
+        <v>0.10243309319523797</v>
       </c>
       <c r="F4">
-        <v>4.4437524238463678E-2</v>
+        <v>0.13621060564557039</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -498,19 +498,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-0.19784957426453617</v>
+        <v>0.1</v>
       </c>
       <c r="C5">
-        <v>1.5223680104988712E-2</v>
+        <v>-0.24940428432916328</v>
       </c>
       <c r="D5">
         <v>6.1795932814266499E-2</v>
       </c>
       <c r="E5">
-        <v>-0.24940428432916328</v>
+        <v>1.5223680104988712E-2</v>
       </c>
       <c r="F5">
-        <v>0.1</v>
+        <v>-0.19784957426453617</v>
       </c>
     </row>
   </sheetData>

--- a/taxas crescimento.xlsx
+++ b/taxas crescimento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinie\Documents\GitHub\projeto_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2040E8EE-C1A3-49CA-8922-9069A8B2FD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48FD893-6AE3-486B-9B80-2036C830AC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F281FA50-E542-42BB-AF85-3156D7D19A72}"/>
   </bookViews>
@@ -405,7 +405,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,7 +498,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.1</v>
+        <v>-1.29E-2</v>
       </c>
       <c r="C5">
         <v>-0.24940428432916328</v>
